--- a/biology/Médecine/Os_irrégulier/Os_irrégulier.xlsx
+++ b/biology/Médecine/Os_irrégulier/Os_irrégulier.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Os_irr%C3%A9gulier</t>
+          <t>Os_irrégulier</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les os irréguliers sont les os qui, par leur forme particulière, ne peuvent être regroupés ni en os longs, ni en os courts, ni en os plats, ni en os sésamoïdes.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Os_irr%C3%A9gulier</t>
+          <t>Os_irrégulier</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Structure</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les os irréguliers sont constitués de tissu spongieux enfermé dans une fine couche d'os compact.
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Os_irr%C3%A9gulier</t>
+          <t>Os_irrégulier</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Les os irréguliers humains</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Le squelette humain possède les os irréguliers suivants :
 les os temporaux,
@@ -566,7 +582,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Os_irr%C3%A9gulier</t>
+          <t>Os_irrégulier</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -584,7 +600,9 @@
           <t>Anatomie fonctionnelle</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Les os irréguliers remplissent diverses fonctions telles que la protection de la moelle spinale pour les vertèbres, des points d'insertions musculaires comme pour le sacrum ou le maintien du pharynx, de la trachée et de la langue pour l’os hyoïde.
 </t>
